--- a/doc/详细设计/数据库设计/数据结构定义.xlsx
+++ b/doc/详细设计/数据库设计/数据结构定义.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15360" windowHeight="9315" tabRatio="963"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15360" windowHeight="9315" tabRatio="963" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="个人求职表" sheetId="13" r:id="rId1"/>
     <sheet name="个人工作经历表" sheetId="14" r:id="rId2"/>
     <sheet name="职位信息表" sheetId="1" r:id="rId3"/>
-    <sheet name="职位类别表（字典表）" sheetId="6" r:id="rId4"/>
+    <sheet name="职位领域表（字典表）" sheetId="6" r:id="rId4"/>
     <sheet name="标准职位表（字典表）" sheetId="5" r:id="rId5"/>
     <sheet name="公司信息表" sheetId="4" r:id="rId6"/>
     <sheet name="职类相关度表（字典表）" sheetId="7" r:id="rId7"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="237">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -962,6 +962,14 @@
   </si>
   <si>
     <t>个人价值层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务经营类行业地位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price_business</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1389,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -2288,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2539,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2779,6 +2787,17 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
